--- a/Financials/SPGI.xlsx
+++ b/Financials/SPGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F1141D-D28C-4249-ADEB-8D9C5F1ACDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F858001-BFAA-E749-BDE2-89C8B909D795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1942,9 +1942,11 @@
     <v>Powered by Refinitiv</v>
     <v>533.29</v>
     <v>382.12</v>
-    <v>1.1848000000000001</v>
-    <v>0.28000000000000003</v>
-    <v>5.7180000000000002E-4</v>
+    <v>1.1803999999999999</v>
+    <v>7.11</v>
+    <v>1.4511000000000001E-2</v>
+    <v>0.01</v>
+    <v>2.012E-5</v>
     <v>USD</v>
     <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. Its segments include S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility) and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment provides credit ratings, research, and analytics, offering investors and other market participants information, ratings and benchmarks. Its Commodity Insights provide information and benchmark prices for the commodity and energy markets. Its Mobility segment offers solutions serving the full automotive value chain. Its Indices segment is a global index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>40450</v>
@@ -1952,24 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water Street, NEW YORK, NY, 10041 US</v>
-    <v>503.62</v>
+    <v>498.32</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45602.953884721872</v>
+    <v>45604.029401863285</v>
     <v>0</v>
-    <v>477.29</v>
-    <v>152043897000</v>
+    <v>492.31</v>
+    <v>154250130000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>503.62</v>
-    <v>43.231499999999997</v>
-    <v>489.71</v>
+    <v>494.72</v>
+    <v>43.859000000000002</v>
     <v>489.99</v>
+    <v>497.1</v>
+    <v>497.11</v>
     <v>310300000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>144</v>
-    <v>1129827</v>
+    <v>1314775</v>
+    <v>1186918</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>489.99</v>
+        <v>497.1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>11.133853031634446</v>
+        <v>11.295410808435852</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.7180000000000002E-4</v>
+        <v>1.4511000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.36491046741277</v>
+        <v>33.849052007899935</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>152043897000</v>
+        <v>154250130000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.4187495207387376E-2</v>
+        <v>3.3698512928319733E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1848000000000001</v>
+        <v>1.1803999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3055,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.54667648866842322</v>
+        <v>-0.55316035542675657</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Financials/SPGI.xlsx
+++ b/Financials/SPGI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F858001-BFAA-E749-BDE2-89C8B909D795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CDA511-7979-9F4E-8FA1-744B1ADB5585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1941,12 +1941,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>533.29</v>
-    <v>382.12</v>
-    <v>1.1803999999999999</v>
-    <v>7.11</v>
-    <v>1.4511000000000001E-2</v>
-    <v>0.01</v>
-    <v>2.012E-5</v>
+    <v>407.53</v>
+    <v>1.1859</v>
+    <v>-0.69</v>
+    <v>-1.372E-3</v>
+    <v>0.49</v>
+    <v>9.7550000000000002E-4</v>
     <v>USD</v>
     <v>S&amp;P Global Inc. is a provider of credit ratings, benchmarks, analytics and workflow solutions in the global capital, commodity and automotive markets. Its segments include S&amp;P Global Market Intelligence (Market Intelligence), S&amp;P Global Ratings (Ratings), S&amp;P Global Commodity Insights (Commodity Insights), S&amp;P Global Mobility (Mobility) and S&amp;P Dow Jones Indices (Indices). Its Market Intelligence business lines include desktop, data and advisory solutions, enterprise solutions and credit risk solutions. Its Ratings segment provides credit ratings, research, and analytics, offering investors and other market participants information, ratings and benchmarks. Its Commodity Insights provide information and benchmark prices for the commodity and energy markets. Its Mobility segment offers solutions serving the full automotive value chain. Its Indices segment is a global index provider maintaining a variety of valuation and index benchmarks for investment advisors and wealth managers.</v>
     <v>40450</v>
@@ -1954,25 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Water Street, NEW YORK, NY, 10041 US</v>
-    <v>498.32</v>
+    <v>505.88</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45604.029401863285</v>
+    <v>45616.025683587497</v>
     <v>0</v>
-    <v>492.31</v>
-    <v>154250130000</v>
+    <v>499.8</v>
+    <v>155866793000</v>
     <v>S&amp;P Global Inc.</v>
     <v>S&amp;P Global Inc.</v>
-    <v>494.72</v>
-    <v>43.859000000000002</v>
-    <v>489.99</v>
-    <v>497.1</v>
-    <v>497.11</v>
+    <v>502.73</v>
+    <v>44.3185</v>
+    <v>503</v>
+    <v>502.31</v>
+    <v>502.8</v>
     <v>310300000</v>
     <v>SPGI</v>
     <v>S&amp;P Global Inc. (XNYS:SPGI)</v>
-    <v>1314775</v>
-    <v>1186918</v>
+    <v>1403007</v>
+    <v>1316913</v>
     <v>1925</v>
   </rv>
   <rv s="2">
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>497.1</v>
+        <v>502.31</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>11.295410808435852</v>
+        <v>11.413795620972467</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.4511000000000001E-2</v>
+        <v>-1.372E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>33.849052007899935</v>
+        <v>34.203816765415844</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>154250130000</v>
+        <v>155866793000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.3698512928319733E-2</v>
+        <v>3.3348989223124646E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1803999999999999</v>
+        <v>1.1859</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.55316035542675657</v>
+        <v>-0.55779501240795659</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
